--- a/A787.xlsx
+++ b/A787.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEBDB60-6216-4B6E-B5B6-B3F7C596ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF0867-EBDD-4AAD-AD28-7D5FEDD18EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -127,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,49 +150,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,15 +176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,7 +496,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B27" sqref="B27:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +526,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -589,8 +543,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,36 +560,54 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
@@ -639,29 +615,43 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3"/>
@@ -669,45 +659,65 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -719,36 +729,44 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3"/>
@@ -756,22 +774,26 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="3"/>
@@ -779,58 +801,60 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/A787.xlsx
+++ b/A787.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cabinbase.hcm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF0867-EBDD-4AAD-AD28-7D5FEDD18EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
+    <sheet name="Lavatory" sheetId="11" r:id="rId2"/>
+    <sheet name="Pax seat" sheetId="12" r:id="rId3"/>
+    <sheet name="Galley" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -51,30 +53,9 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>HÀNG GHẾ CBA, GHK</t>
-  </si>
-  <si>
     <t>B0E1000-923</t>
   </si>
   <si>
-    <t>HÀNG GHẾ DEF</t>
-  </si>
-  <si>
-    <t>PKAT012000A0001</t>
-  </si>
-  <si>
-    <t>DAMPER COVER CỦA CỬA LAV</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>OVERHEAD</t>
-  </si>
-  <si>
-    <t>LAVATORY</t>
-  </si>
-  <si>
     <t>A/C</t>
   </si>
   <si>
@@ -85,12 +66,18 @@
   </si>
   <si>
     <t>A321</t>
+  </si>
+  <si>
+    <t>HÀNG GHẾ CBA, GHK (Dùng tool tháo PN : ST1876EA-1)</t>
+  </si>
+  <si>
+    <t>HÀNG GHẾ DEF (Dùng tool tháo PN : ST1876EA-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +168,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,370 +479,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E7377-1C30-4E23-9019-48C4C38ADB67}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B32"/>
+      <selection activeCell="D6" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A787.xlsx
+++ b/A787.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D5:D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,36 +657,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/A787.xlsx
+++ b/A787.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -72,13 +72,50 @@
   </si>
   <si>
     <t>HÀNG GHẾ DEF (Dùng tool tháo PN : ST1876EA-1)</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>PN INTERCHANGE</t>
+  </si>
+  <si>
+    <t>B0E-1000-921</t>
+  </si>
+  <si>
+    <t>B0E-1000-923</t>
+  </si>
+  <si>
+    <t>Y SEAT</t>
+  </si>
+  <si>
+    <t>1024366-313BHU</t>
+  </si>
+  <si>
+    <t>1024366-313BHUA</t>
+  </si>
+  <si>
+    <t>ARMCAP COVER</t>
+  </si>
+  <si>
+    <t>CÓ LỖ</t>
+  </si>
+  <si>
+    <t>KHÔNG LỖ</t>
+  </si>
+  <si>
+    <t>1024366-311BHU</t>
+  </si>
+  <si>
+    <t>1024366-311BHUA
+1024366-311BHU-VAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +141,25 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -163,6 +219,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,22 +554,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="23" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -505,11 +579,14 @@
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -519,11 +596,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -533,121 +613,138 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,147 +768,185 @@
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,10 +955,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,310 +1192,185 @@
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A787.xlsx
+++ b/A787.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cabinbase.hcm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5E13E-64B3-4DC2-85C9-03B1D7106330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
@@ -22,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="25">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -107,14 +99,16 @@
     <t>1024366-311BHU</t>
   </si>
   <si>
-    <t>1024366-311BHUA
-1024366-311BHU-VAE</t>
+    <t>1024366-311BHU-VAE</t>
+  </si>
+  <si>
+    <t>1024366-311BHUA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -193,12 +187,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,16 +253,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,10 +591,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -753,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,6 +804,7 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.25">
@@ -954,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,21 +1049,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -1034,10 +1073,12 @@
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,13 +1212,18 @@
       <c r="F17" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1190,6 +1236,7 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.25">

--- a/A787.xlsx
+++ b/A787.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5E13E-64B3-4DC2-85C9-03B1D7106330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DBF535-151D-4720-ADC4-3CEAB82E60EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -99,10 +99,7 @@
     <t>1024366-311BHU</t>
   </si>
   <si>
-    <t>1024366-311BHU-VAE</t>
-  </si>
-  <si>
-    <t>1024366-311BHUA</t>
+    <t>1024366-311BHUA / 1024366-311BHU-VAE</t>
   </si>
 </sst>
 </file>
@@ -164,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,38 +184,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,24 +228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,7 +950,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,21 +1002,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>21</v>
@@ -1073,12 +1026,10 @@
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,11 +1163,6 @@
       <c r="F17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/A787.xlsx
+++ b/A787.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DBF535-151D-4720-ADC4-3CEAB82E60EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE5028-6BD4-4C1F-9372-7C6245032F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -100,6 +100,57 @@
   </si>
   <si>
     <t>1024366-311BHUA / 1024366-311BHU-VAE</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>832Z6501-1</t>
+  </si>
+  <si>
+    <t>832Z6501-111</t>
+  </si>
+  <si>
+    <t>832Z6501-2</t>
+  </si>
+  <si>
+    <t>832Z6501-112</t>
+  </si>
+  <si>
+    <t>832Z6501-3</t>
+  </si>
+  <si>
+    <t>832Z6501-113</t>
+  </si>
+  <si>
+    <t>832Z6501-4</t>
+  </si>
+  <si>
+    <t>832Z6501-114</t>
+  </si>
+  <si>
+    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (24INCH - 35LB VỚI CTR, 50LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>KHÔNG LỖ (24INCH - 35LB VỚI CTR, 50LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (36INCH - 56LB VỚI CTR, 80LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>KHÔNG LỖ (36INCH - 56LB VỚI CTR, 80LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (42INCH - 66LB VỚI CTR, 95LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>KHÔNG LỖ (42INCH - 66LB VỚI CTR, 95LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (48INCH - 77LB VỚI CTR, 111LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>KHÔNG LỖ (48INCH - 77LB VỚI CTR, 111LB VỚI OUTB)</t>
   </si>
 </sst>
 </file>
@@ -545,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +607,7 @@
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="4" width="23" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -611,81 +662,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -694,7 +793,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -703,7 +802,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -712,7 +811,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -721,7 +820,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -730,12 +829,66 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/A787.xlsx
+++ b/A787.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\PN lookup app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE5028-6BD4-4C1F-9372-7C6245032F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF901B-80F2-4D39-801C-96B3E89C5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>PART NUMBER (PN)</t>
   </si>
@@ -129,28 +129,118 @@
     <t>832Z6501-114</t>
   </si>
   <si>
-    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (24INCH - 35LB VỚI CTR, 50LB VỚI OUTB)</t>
-  </si>
-  <si>
     <t>KHÔNG LỖ (24INCH - 35LB VỚI CTR, 50LB VỚI OUTB)</t>
   </si>
   <si>
-    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (36INCH - 56LB VỚI CTR, 80LB VỚI OUTB)</t>
-  </si>
-  <si>
     <t>KHÔNG LỖ (36INCH - 56LB VỚI CTR, 80LB VỚI OUTB)</t>
   </si>
   <si>
-    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (42INCH - 66LB VỚI CTR, 95LB VỚI OUTB)</t>
-  </si>
-  <si>
     <t>KHÔNG LỖ (42INCH - 66LB VỚI CTR, 95LB VỚI OUTB)</t>
   </si>
   <si>
-    <t>CÓ LỖ - GẮN VỚI SCREW PN BACS12ER3K7 (48INCH - 77LB VỚI CTR, 111LB VỚI OUTB)</t>
-  </si>
-  <si>
     <t>KHÔNG LỖ (48INCH - 77LB VỚI CTR, 111LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>SCREW - TRIM CÓ LỖ</t>
+  </si>
+  <si>
+    <t>BACS12ER3K7</t>
+  </si>
+  <si>
+    <t>CÓ LỖ (24INCH - 35LB VỚI CTR, 50LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ (36INCH - 56LB VỚI CTR, 80LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ (42INCH - 66LB VỚI CTR, 95LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>CÓ LỖ (48INCH - 77LB VỚI CTR, 111LB VỚI OUTB)</t>
+  </si>
+  <si>
+    <t>KEO DÁN TRIM</t>
+  </si>
+  <si>
+    <t>EC3532B/A-40Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREW - TORQUE TUBE </t>
+  </si>
+  <si>
+    <t>BACS12FA3K3</t>
+  </si>
+  <si>
+    <t>BACS12JL3K3</t>
+  </si>
+  <si>
+    <t>ESCUTCHEON</t>
+  </si>
+  <si>
+    <t>1010206-301BHU</t>
+  </si>
+  <si>
+    <t>1010206-301BHU-VAE / 1010206-301BHUA</t>
+  </si>
+  <si>
+    <t>ARMCAP GHẾ IAT</t>
+  </si>
+  <si>
+    <t>1012042-071KA02</t>
+  </si>
+  <si>
+    <t>HÀNG GHẾ ABCEF (CÁNH TAY MỞ RH)</t>
+  </si>
+  <si>
+    <t>1012042-072KA02</t>
+  </si>
+  <si>
+    <t>HÀNG GHẾ GHKD (CÁNH TAY MỞ LH)</t>
+  </si>
+  <si>
+    <t>ULTRALOC</t>
+  </si>
+  <si>
+    <t>SP23824L</t>
+  </si>
+  <si>
+    <t>1011535-005</t>
+  </si>
+  <si>
+    <t>NÚT BẤM RECLINE</t>
+  </si>
+  <si>
+    <t>SP23997C29</t>
+  </si>
+  <si>
+    <t>GHẾ IAT</t>
+  </si>
+  <si>
+    <t>SP23997C30</t>
+  </si>
+  <si>
+    <t>GHẾ THƯỜNG</t>
+  </si>
+  <si>
+    <t>SEATBELT</t>
+  </si>
+  <si>
+    <t>2185-1-052-8022</t>
+  </si>
+  <si>
+    <t>2185-1-062-8022</t>
+  </si>
+  <si>
+    <t>2006-1-511-8022</t>
+  </si>
+  <si>
+    <t>GHẾ Y CÒN LẠI (APPLY CHO TOÀN BỘ GHẾ Y 787-10)</t>
+  </si>
+  <si>
+    <t>GHẾ IAT HÀNG 16 ABC VÀ 16 DEF (TRỪ TÀU 787-10)</t>
+  </si>
+  <si>
+    <t>GHẾ IAT 16 GHK (TRỪ TÀU 787-10)</t>
   </si>
 </sst>
 </file>
@@ -598,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,10 +764,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -689,10 +779,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -704,10 +794,10 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -719,7 +809,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -734,7 +824,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -749,7 +839,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -764,7 +854,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -779,15 +869,19 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
@@ -795,18 +889,28 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1215,8 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1175,101 +1280,175 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1277,7 +1456,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1287,7 +1466,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1297,7 +1476,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1307,13 +1486,73 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
